--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_30_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_30_41.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34968.42590802714</v>
+        <v>6926639.127026496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34968.42590802714</v>
+        <v>6926639.127026496</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>18141.67431508211</v>
+        <v>1093819.551289482</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18141.67431508211</v>
+        <v>1093819.551289482</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1114291222.814615</v>
+        <v>46869755.43979413</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11369.94697896481</v>
+        <v>1292927.741771581</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20446.89251543492</v>
+        <v>2205976.096012712</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>29523.838051905</v>
+        <v>3119024.450253844</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>39000.55246854916</v>
+        <v>3989182.038314646</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>48533.80704125049</v>
+        <v>4871853.609938397</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>57980.37669999587</v>
+        <v>5761432.554962045</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>67387.94363199132</v>
+        <v>6649065.844742347</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>76795.5105639868</v>
+        <v>7536699.13452265</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>86203.75865118443</v>
+        <v>8423808.96654916</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>95611.28802952869</v>
+        <v>9311074.192994315</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>105018.8174078729</v>
+        <v>10198339.41943947</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>114425.8748637972</v>
+        <v>11085604.64588464</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>123825.5727961474</v>
+        <v>11973249.89576884</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>133232.5642844216</v>
+        <v>12860408.08209006</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>142639.6217403459</v>
+        <v>13747673.30853522</v>
       </c>
     </row>
   </sheetData>
@@ -27037,28 +27037,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>276</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>12</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>276</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>825</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
